--- a/src/main/resources/185-RuoYi-Cloud/ruoyi-gen_structure.xlsx
+++ b/src/main/resources/185-RuoYi-Cloud/ruoyi-gen_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="316">
   <si>
     <t>类名</t>
   </si>
@@ -112,7 +112,7 @@
     <t>org.apache.velocity.VelocityContext</t>
   </si>
   <si>
-    <t>setMenuVelocityContext(org.apache.velocity.VelocityContext)</t>
+    <t>setMenuVelocityContext(org.apache.velocity.VelocityContext,com.ruoyi.gen.domain.GenTable)</t>
   </si>
   <si>
     <t>getTreeParentCode(com.alibaba.fastjson.JSONObject)</t>
@@ -148,13 +148,13 @@
     <t>getDicts(com.ruoyi.gen.domain.GenTable)</t>
   </si>
   <si>
-    <t>setTreeVelocityContext(org.apache.velocity.VelocityContext)</t>
+    <t>setTreeVelocityContext(org.apache.velocity.VelocityContext,com.ruoyi.gen.domain.GenTable)</t>
   </si>
   <si>
     <t>getTreecode(com.alibaba.fastjson.JSONObject)</t>
   </si>
   <si>
-    <t>setSubVelocityContext(org.apache.velocity.VelocityContext)</t>
+    <t>setSubVelocityContext(org.apache.velocity.VelocityContext,com.ruoyi.gen.domain.GenTable)</t>
   </si>
   <si>
     <t>com.ruoyi.gen.util.GenUtils</t>
@@ -898,7 +898,7 @@
     <t>getInfo(java.lang.Long)</t>
   </si>
   <si>
-    <t>batchGenCode(javax.servlet.http.HttpServletResponse)</t>
+    <t>batchGenCode(javax.servlet.http.HttpServletResponse,java.lang.String)</t>
   </si>
   <si>
     <t>importTableSave(java.lang.String)</t>
@@ -916,7 +916,7 @@
     <t>genCode(java.lang.String)</t>
   </si>
   <si>
-    <t>download(javax.servlet.http.HttpServletResponse)</t>
+    <t>download(javax.servlet.http.HttpServletResponse,java.lang.String)</t>
   </si>
   <si>
     <t>源类名</t>
@@ -7267,7 +7267,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7533,13 +7533,13 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>110</v>
       </c>
       <c r="E16" t="s">
         <v>306</v>
@@ -7550,13 +7550,13 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>306</v>
@@ -7567,13 +7567,13 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>306</v>
@@ -7584,13 +7584,13 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
         <v>306</v>
@@ -7601,13 +7601,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
         <v>306</v>
@@ -7621,10 +7621,10 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>306</v>
@@ -7635,13 +7635,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
         <v>306</v>
@@ -7652,13 +7652,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="E23" t="s">
         <v>306</v>
@@ -7669,16 +7669,16 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25">
@@ -7692,7 +7692,7 @@
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
         <v>306</v>
@@ -7709,7 +7709,7 @@
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
         <v>306</v>
@@ -7726,10 +7726,10 @@
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28">
@@ -7737,13 +7737,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
         <v>306</v>
@@ -7754,16 +7754,16 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
@@ -7771,13 +7771,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>306</v>
@@ -7788,13 +7788,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E31" t="s">
         <v>306</v>
@@ -7805,16 +7805,16 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
@@ -7822,16 +7822,16 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="E33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
@@ -7842,13 +7842,13 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
@@ -7856,16 +7856,16 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
@@ -7873,13 +7873,13 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
         <v>304</v>
@@ -7890,13 +7890,13 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
         <v>304</v>
@@ -7907,16 +7907,16 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39">
@@ -7924,16 +7924,16 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40">
@@ -7941,16 +7941,16 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41">
@@ -7961,10 +7961,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>306</v>
@@ -7981,7 +7981,7 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
         <v>306</v>
@@ -7992,16 +7992,16 @@
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44">
@@ -8009,13 +8009,13 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
         <v>306</v>
@@ -8026,13 +8026,13 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
         <v>306</v>
@@ -8049,10 +8049,10 @@
         <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47">
@@ -8063,10 +8063,10 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
         <v>306</v>
@@ -8074,33 +8074,33 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
         <v>306</v>
@@ -8108,16 +8108,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
         <v>306</v>
@@ -8131,13 +8131,13 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
@@ -8148,10 +8148,10 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
         <v>306</v>
@@ -8165,10 +8165,10 @@
         <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
         <v>306</v>
@@ -8182,10 +8182,10 @@
         <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
         <v>306</v>
@@ -8202,7 +8202,7 @@
         <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
         <v>306</v>
@@ -8216,13 +8216,13 @@
         <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57">
@@ -8236,10 +8236,10 @@
         <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58">
@@ -8250,13 +8250,13 @@
         <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59">
@@ -8267,13 +8267,13 @@
         <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E59" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60">
@@ -8287,10 +8287,10 @@
         <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61">
@@ -8301,13 +8301,13 @@
         <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62">
@@ -8318,13 +8318,13 @@
         <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="E62" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63">
@@ -8338,10 +8338,10 @@
         <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64">
@@ -8355,7 +8355,7 @@
         <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E64" t="s">
         <v>306</v>
@@ -8372,10 +8372,10 @@
         <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66">
@@ -8383,16 +8383,16 @@
         <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67">
@@ -8400,13 +8400,13 @@
         <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
         <v>306</v>
@@ -8417,13 +8417,13 @@
         <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
         <v>306</v>
@@ -8437,10 +8437,10 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="E69" t="s">
         <v>304</v>
@@ -8454,10 +8454,10 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
         <v>306</v>
@@ -8471,10 +8471,10 @@
         <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
         <v>306</v>
@@ -8488,13 +8488,13 @@
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73">
@@ -8505,10 +8505,10 @@
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s">
         <v>306</v>
@@ -8522,10 +8522,10 @@
         <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="E74" t="s">
         <v>306</v>
@@ -8542,7 +8542,7 @@
         <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
         <v>306</v>
@@ -8559,7 +8559,7 @@
         <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E76" t="s">
         <v>306</v>
@@ -8576,7 +8576,7 @@
         <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="E77" t="s">
         <v>306</v>
@@ -8590,10 +8590,10 @@
         <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
         <v>306</v>
@@ -8607,10 +8607,10 @@
         <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="E79" t="s">
         <v>306</v>
@@ -8627,7 +8627,7 @@
         <v>68</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
         <v>306</v>
@@ -8638,13 +8638,13 @@
         <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
         <v>56</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E81" t="s">
         <v>306</v>
@@ -8655,13 +8655,13 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D82" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="E82" t="s">
         <v>306</v>
@@ -8672,13 +8672,13 @@
         <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D83" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="E83" t="s">
         <v>306</v>
@@ -8686,16 +8686,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
         <v>306</v>
@@ -8703,16 +8703,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="E85" t="s">
         <v>306</v>
@@ -8720,16 +8720,16 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D86" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E86" t="s">
         <v>306</v>
@@ -8743,10 +8743,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E87" t="s">
         <v>306</v>
@@ -8757,7 +8757,7 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -8766,7 +8766,7 @@
         <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89">
@@ -8774,16 +8774,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D89" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="E89" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90">
@@ -8791,16 +8791,16 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E90" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91">
@@ -8814,10 +8814,10 @@
         <v>68</v>
       </c>
       <c r="D91" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E91" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92">
@@ -8828,13 +8828,13 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="E92" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93">
@@ -8848,10 +8848,10 @@
         <v>68</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94">
@@ -8859,13 +8859,13 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
       </c>
       <c r="D94" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E94" t="s">
         <v>304</v>
@@ -8876,13 +8876,13 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E95" t="s">
         <v>306</v>
@@ -8893,16 +8893,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
       </c>
       <c r="D96" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="E96" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97">
@@ -8916,10 +8916,10 @@
         <v>68</v>
       </c>
       <c r="D97" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E97" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98">
@@ -8927,13 +8927,13 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="E98" t="s">
         <v>306</v>
@@ -8944,13 +8944,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C99" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="E99" t="s">
         <v>306</v>
@@ -8961,13 +8961,13 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D100" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="E100" t="s">
         <v>306</v>
@@ -8978,13 +8978,13 @@
         <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D101" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="E101" t="s">
         <v>306</v>
@@ -8995,13 +8995,13 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C102" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D102" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E102" t="s">
         <v>306</v>
@@ -9012,13 +9012,13 @@
         <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D103" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s">
         <v>306</v>
@@ -9029,13 +9029,13 @@
         <v>95</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C104" t="s">
         <v>95</v>
       </c>
       <c r="D104" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E104" t="s">
         <v>306</v>
@@ -9049,10 +9049,10 @@
         <v>88</v>
       </c>
       <c r="C105" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E105" t="s">
         <v>306</v>
@@ -9066,10 +9066,10 @@
         <v>88</v>
       </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E106" t="s">
         <v>306</v>
@@ -9083,10 +9083,10 @@
         <v>88</v>
       </c>
       <c r="C107" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E107" t="s">
         <v>306</v>
@@ -9100,10 +9100,10 @@
         <v>88</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E108" t="s">
         <v>306</v>
@@ -9117,10 +9117,10 @@
         <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="E109" t="s">
         <v>306</v>
@@ -9137,7 +9137,7 @@
         <v>68</v>
       </c>
       <c r="D110" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E110" t="s">
         <v>306</v>
@@ -9148,13 +9148,13 @@
         <v>95</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E111" t="s">
         <v>306</v>
@@ -9165,13 +9165,13 @@
         <v>95</v>
       </c>
       <c r="B112" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E112" t="s">
         <v>306</v>
@@ -9182,13 +9182,13 @@
         <v>95</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D113" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="E113" t="s">
         <v>306</v>
@@ -9199,13 +9199,13 @@
         <v>95</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="E114" t="s">
         <v>306</v>
@@ -9216,13 +9216,13 @@
         <v>95</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C115" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D115" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="E115" t="s">
         <v>306</v>
@@ -9233,13 +9233,13 @@
         <v>95</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C116" t="s">
         <v>65</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E116" t="s">
         <v>306</v>
@@ -9256,7 +9256,7 @@
         <v>68</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E117" t="s">
         <v>306</v>
@@ -9270,10 +9270,10 @@
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D118" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E118" t="s">
         <v>306</v>
@@ -9284,13 +9284,13 @@
         <v>95</v>
       </c>
       <c r="B119" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
         <v>65</v>
       </c>
       <c r="D119" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E119" t="s">
         <v>306</v>
@@ -9301,13 +9301,13 @@
         <v>95</v>
       </c>
       <c r="B120" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D120" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="E120" t="s">
         <v>306</v>
@@ -9318,13 +9318,13 @@
         <v>95</v>
       </c>
       <c r="B121" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C121" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D121" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E121" t="s">
         <v>306</v>
@@ -9338,10 +9338,10 @@
         <v>97</v>
       </c>
       <c r="C122" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E122" t="s">
         <v>306</v>
@@ -9355,10 +9355,10 @@
         <v>97</v>
       </c>
       <c r="C123" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E123" t="s">
         <v>306</v>
@@ -9372,10 +9372,10 @@
         <v>97</v>
       </c>
       <c r="C124" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D124" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E124" t="s">
         <v>306</v>
@@ -9389,10 +9389,10 @@
         <v>97</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E125" t="s">
         <v>306</v>
@@ -9409,7 +9409,7 @@
         <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E126" t="s">
         <v>306</v>
@@ -9426,7 +9426,7 @@
         <v>68</v>
       </c>
       <c r="D127" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E127" t="s">
         <v>306</v>
@@ -9437,13 +9437,13 @@
         <v>95</v>
       </c>
       <c r="B128" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="E128" t="s">
         <v>306</v>
@@ -9454,13 +9454,13 @@
         <v>95</v>
       </c>
       <c r="B129" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C129" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="E129" t="s">
         <v>306</v>
@@ -9471,13 +9471,13 @@
         <v>95</v>
       </c>
       <c r="B130" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D130" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E130" t="s">
         <v>306</v>
@@ -9488,13 +9488,13 @@
         <v>95</v>
       </c>
       <c r="B131" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C131" t="s">
         <v>65</v>
       </c>
       <c r="D131" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E131" t="s">
         <v>306</v>
@@ -9508,10 +9508,10 @@
         <v>89</v>
       </c>
       <c r="C132" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D132" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E132" t="s">
         <v>306</v>
@@ -9528,7 +9528,7 @@
         <v>45</v>
       </c>
       <c r="D133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E133" t="s">
         <v>306</v>
@@ -9542,10 +9542,10 @@
         <v>89</v>
       </c>
       <c r="C134" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E134" t="s">
         <v>306</v>
@@ -9556,13 +9556,13 @@
         <v>95</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C135" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D135" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="E135" t="s">
         <v>306</v>
@@ -9573,16 +9573,16 @@
         <v>95</v>
       </c>
       <c r="B136" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C136" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D136" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E136" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="137">
@@ -9590,13 +9590,13 @@
         <v>95</v>
       </c>
       <c r="B137" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C137" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D137" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E137" t="s">
         <v>306</v>
@@ -9607,16 +9607,16 @@
         <v>95</v>
       </c>
       <c r="B138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C138" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D138" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="E138" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139">
@@ -9624,16 +9624,16 @@
         <v>95</v>
       </c>
       <c r="B139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="D139" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="E139" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140">
@@ -9644,10 +9644,10 @@
         <v>100</v>
       </c>
       <c r="C140" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="D140" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="E140" t="s">
         <v>306</v>
@@ -9664,10 +9664,10 @@
         <v>141</v>
       </c>
       <c r="D141" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E141" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142">
@@ -9681,7 +9681,7 @@
         <v>141</v>
       </c>
       <c r="D142" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="E142" t="s">
         <v>306</v>
@@ -9698,7 +9698,7 @@
         <v>141</v>
       </c>
       <c r="D143" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E143" t="s">
         <v>306</v>
@@ -9715,7 +9715,7 @@
         <v>141</v>
       </c>
       <c r="D144" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E144" t="s">
         <v>306</v>
@@ -9732,7 +9732,7 @@
         <v>141</v>
       </c>
       <c r="D145" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E145" t="s">
         <v>306</v>
@@ -9749,10 +9749,10 @@
         <v>141</v>
       </c>
       <c r="D146" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="E146" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147">
@@ -9766,7 +9766,7 @@
         <v>141</v>
       </c>
       <c r="D147" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E147" t="s">
         <v>306</v>
@@ -9783,7 +9783,7 @@
         <v>141</v>
       </c>
       <c r="D148" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E148" t="s">
         <v>306</v>
@@ -9800,10 +9800,10 @@
         <v>141</v>
       </c>
       <c r="D149" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E149" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="150">
@@ -9817,7 +9817,7 @@
         <v>141</v>
       </c>
       <c r="D150" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E150" t="s">
         <v>306</v>
@@ -9834,7 +9834,7 @@
         <v>141</v>
       </c>
       <c r="D151" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E151" t="s">
         <v>306</v>
@@ -9851,7 +9851,7 @@
         <v>141</v>
       </c>
       <c r="D152" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E152" t="s">
         <v>306</v>
@@ -9868,7 +9868,7 @@
         <v>141</v>
       </c>
       <c r="D153" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E153" t="s">
         <v>306</v>
@@ -9885,7 +9885,7 @@
         <v>141</v>
       </c>
       <c r="D154" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E154" t="s">
         <v>306</v>
@@ -9899,10 +9899,10 @@
         <v>100</v>
       </c>
       <c r="C155" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="D155" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="E155" t="s">
         <v>306</v>
@@ -9916,10 +9916,10 @@
         <v>100</v>
       </c>
       <c r="C156" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="D156" t="s">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="E156" t="s">
         <v>306</v>
@@ -9930,13 +9930,13 @@
         <v>95</v>
       </c>
       <c r="B157" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C157" t="s">
         <v>141</v>
       </c>
       <c r="D157" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E157" t="s">
         <v>306</v>
@@ -9947,13 +9947,13 @@
         <v>95</v>
       </c>
       <c r="B158" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C158" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D158" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E158" t="s">
         <v>306</v>
@@ -9964,13 +9964,13 @@
         <v>95</v>
       </c>
       <c r="B159" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C159" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D159" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E159" t="s">
         <v>306</v>
@@ -9981,13 +9981,13 @@
         <v>95</v>
       </c>
       <c r="B160" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C160" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D160" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="E160" t="s">
         <v>306</v>
@@ -10001,10 +10001,10 @@
         <v>90</v>
       </c>
       <c r="C161" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E161" t="s">
         <v>306</v>
@@ -10018,10 +10018,10 @@
         <v>90</v>
       </c>
       <c r="C162" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E162" t="s">
         <v>306</v>
@@ -10035,10 +10035,10 @@
         <v>90</v>
       </c>
       <c r="C163" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D163" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E163" t="s">
         <v>306</v>
@@ -10052,10 +10052,10 @@
         <v>90</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E164" t="s">
         <v>306</v>
@@ -10066,13 +10066,13 @@
         <v>95</v>
       </c>
       <c r="B165" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C165" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D165" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="E165" t="s">
         <v>306</v>
@@ -10083,13 +10083,13 @@
         <v>95</v>
       </c>
       <c r="B166" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C166" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D166" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E166" t="s">
         <v>306</v>
@@ -10100,13 +10100,13 @@
         <v>95</v>
       </c>
       <c r="B167" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C167" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="E167" t="s">
         <v>306</v>
@@ -10117,13 +10117,13 @@
         <v>95</v>
       </c>
       <c r="B168" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
       </c>
       <c r="D168" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="E168" t="s">
         <v>306</v>
@@ -10134,13 +10134,13 @@
         <v>95</v>
       </c>
       <c r="B169" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C169" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D169" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E169" t="s">
         <v>306</v>
@@ -10151,13 +10151,13 @@
         <v>95</v>
       </c>
       <c r="B170" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
       </c>
       <c r="D170" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E170" t="s">
         <v>306</v>
@@ -10174,7 +10174,7 @@
         <v>68</v>
       </c>
       <c r="D171" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="E171" t="s">
         <v>306</v>
@@ -10191,7 +10191,7 @@
         <v>68</v>
       </c>
       <c r="D172" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="E172" t="s">
         <v>306</v>
@@ -10208,7 +10208,7 @@
         <v>68</v>
       </c>
       <c r="D173" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E173" t="s">
         <v>306</v>
@@ -10219,13 +10219,13 @@
         <v>95</v>
       </c>
       <c r="B174" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C174" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D174" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="E174" t="s">
         <v>306</v>
@@ -10236,13 +10236,13 @@
         <v>95</v>
       </c>
       <c r="B175" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C175" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D175" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="E175" t="s">
         <v>306</v>
@@ -10250,16 +10250,16 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B176" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C176" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D176" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E176" t="s">
         <v>306</v>
@@ -10267,16 +10267,16 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B177" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C177" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D177" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E177" t="s">
         <v>306</v>
@@ -10284,16 +10284,16 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B178" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C178" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D178" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E178" t="s">
         <v>306</v>
@@ -10304,13 +10304,13 @@
         <v>106</v>
       </c>
       <c r="B179" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C179" t="s">
         <v>76</v>
       </c>
       <c r="D179" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E179" t="s">
         <v>306</v>
@@ -10318,16 +10318,16 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B180" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C180" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D180" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E180" t="s">
         <v>306</v>
@@ -10335,16 +10335,16 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B181" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="C181" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D181" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="E181" t="s">
         <v>306</v>
@@ -10352,16 +10352,16 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B182" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C182" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D182" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E182" t="s">
         <v>306</v>
@@ -10372,13 +10372,13 @@
         <v>68</v>
       </c>
       <c r="B183" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
       </c>
       <c r="D183" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E183" t="s">
         <v>306</v>
@@ -10389,13 +10389,13 @@
         <v>68</v>
       </c>
       <c r="B184" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
       </c>
       <c r="D184" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="E184" t="s">
         <v>306</v>
@@ -10403,16 +10403,16 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="B185" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C185" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D185" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="E185" t="s">
         <v>306</v>
@@ -10420,16 +10420,16 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="B186" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C186" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D186" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E186" t="s">
         <v>306</v>
@@ -10437,16 +10437,16 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="B187" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C187" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D187" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="E187" t="s">
         <v>306</v>
@@ -10457,13 +10457,13 @@
         <v>141</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C188" t="s">
         <v>141</v>
       </c>
       <c r="D188" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E188" t="s">
         <v>306</v>
@@ -10474,13 +10474,13 @@
         <v>141</v>
       </c>
       <c r="B189" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C189" t="s">
         <v>141</v>
       </c>
       <c r="D189" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="E189" t="s">
         <v>306</v>
@@ -10491,13 +10491,13 @@
         <v>141</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C190" t="s">
         <v>141</v>
       </c>
       <c r="D190" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E190" t="s">
         <v>306</v>
@@ -10508,13 +10508,13 @@
         <v>141</v>
       </c>
       <c r="B191" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C191" t="s">
         <v>141</v>
       </c>
       <c r="D191" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E191" t="s">
         <v>306</v>
@@ -10525,13 +10525,13 @@
         <v>141</v>
       </c>
       <c r="B192" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C192" t="s">
         <v>141</v>
       </c>
       <c r="D192" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E192" t="s">
         <v>306</v>
@@ -10542,15 +10542,66 @@
         <v>141</v>
       </c>
       <c r="B193" t="s">
+        <v>199</v>
+      </c>
+      <c r="C193" t="s">
+        <v>141</v>
+      </c>
+      <c r="D193" t="s">
+        <v>192</v>
+      </c>
+      <c r="E193" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>141</v>
+      </c>
+      <c r="B194" t="s">
+        <v>206</v>
+      </c>
+      <c r="C194" t="s">
+        <v>141</v>
+      </c>
+      <c r="D194" t="s">
+        <v>215</v>
+      </c>
+      <c r="E194" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>141</v>
+      </c>
+      <c r="B195" t="s">
+        <v>219</v>
+      </c>
+      <c r="C195" t="s">
+        <v>141</v>
+      </c>
+      <c r="D195" t="s">
+        <v>192</v>
+      </c>
+      <c r="E195" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>141</v>
+      </c>
+      <c r="B196" t="s">
         <v>225</v>
       </c>
-      <c r="C193" t="s">
-        <v>141</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="C196" t="s">
+        <v>141</v>
+      </c>
+      <c r="D196" t="s">
         <v>204</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E196" t="s">
         <v>306</v>
       </c>
     </row>
